--- a/output/inhaltsverzeichnis/csv_manual_class/manuaLclass_07_08 - Kopie.xlsx
+++ b/output/inhaltsverzeichnis/csv_manual_class/manuaLclass_07_08 - Kopie.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="189">
   <si>
     <t>Überschrift Erste/Kapitelebene</t>
   </si>
@@ -573,7 +573,58 @@
     </r>
   </si>
   <si>
-    <t>Rohstoffmärkte passen nicht wirklich</t>
+    <t>Kategorie Primär</t>
+  </si>
+  <si>
+    <t>Kategorie Region</t>
+  </si>
+  <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
+    <t>Kurze Frist / Konjunkturanalyse</t>
+  </si>
+  <si>
+    <t>Rahmenbedingungen</t>
+  </si>
+  <si>
+    <t>Öffentliche Finanzen</t>
+  </si>
+  <si>
+    <t>Arbeitsmarktpolitik</t>
+  </si>
+  <si>
+    <t>Geld- und Währungspolitik</t>
+  </si>
+  <si>
+    <t>Außenhandel</t>
+  </si>
+  <si>
+    <t>Steuerpolitik</t>
+  </si>
+  <si>
+    <t>Föderales System</t>
+  </si>
+  <si>
+    <t>Lange Frist / Potenzialwachstumsanalyse</t>
+  </si>
+  <si>
+    <t>Welt</t>
+  </si>
+  <si>
+    <t>Nordamerika</t>
+  </si>
+  <si>
+    <t>Asien,Australien</t>
+  </si>
+  <si>
+    <t>Europäische Union</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Finanzpolitik und Föderalismus</t>
   </si>
 </sst>
 </file>
@@ -931,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I162"/>
+  <dimension ref="B1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,10 +994,13 @@
     <col min="3" max="3" width="64" customWidth="1"/>
     <col min="4" max="4" width="69.140625" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -962,8 +1016,14 @@
       <c r="F1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -979,8 +1039,14 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -996,8 +1062,14 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -1013,8 +1085,14 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -1030,8 +1108,14 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1047,8 +1131,14 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1064,8 +1154,14 @@
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1081,8 +1177,14 @@
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1098,8 +1200,14 @@
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1115,8 +1223,14 @@
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -1132,8 +1246,14 @@
       <c r="F11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1269,14 @@
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -1166,8 +1292,14 @@
       <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -1183,8 +1315,14 @@
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -1200,8 +1338,14 @@
       <c r="F15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1217,8 +1361,14 @@
       <c r="G16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -1237,8 +1387,14 @@
       <c r="G17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1257,8 +1413,14 @@
       <c r="G18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -1277,8 +1439,14 @@
       <c r="G19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -1297,8 +1465,14 @@
       <c r="G20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -1317,8 +1491,14 @@
       <c r="G21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -1337,8 +1517,14 @@
       <c r="G22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -1357,8 +1543,14 @@
       <c r="G23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -1377,8 +1569,14 @@
       <c r="G24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -1397,8 +1595,14 @@
       <c r="G25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>28</v>
       </c>
@@ -1417,8 +1621,14 @@
       <c r="G26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -1437,8 +1647,14 @@
       <c r="G27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -1458,10 +1674,13 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="J28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -1480,8 +1699,14 @@
       <c r="G29" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>28</v>
       </c>
@@ -1500,8 +1725,14 @@
       <c r="G30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -1520,8 +1751,14 @@
       <c r="G31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>28</v>
       </c>
@@ -1540,8 +1777,14 @@
       <c r="G32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>174</v>
+      </c>
+      <c r="J32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -1560,8 +1803,14 @@
       <c r="G33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>179</v>
+      </c>
+      <c r="J33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>28</v>
       </c>
@@ -1580,8 +1829,14 @@
       <c r="G34" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>174</v>
+      </c>
+      <c r="J34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>28</v>
       </c>
@@ -1600,8 +1855,14 @@
       <c r="G35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -1620,8 +1881,14 @@
       <c r="G36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>28</v>
       </c>
@@ -1640,8 +1907,14 @@
       <c r="G37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>28</v>
       </c>
@@ -1660,8 +1933,14 @@
       <c r="G38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>174</v>
+      </c>
+      <c r="J38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>28</v>
       </c>
@@ -1680,8 +1959,14 @@
       <c r="G39" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>186</v>
+      </c>
+      <c r="J39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>28</v>
       </c>
@@ -1700,8 +1985,14 @@
       <c r="G40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>174</v>
+      </c>
+      <c r="J40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>28</v>
       </c>
@@ -1720,8 +2011,14 @@
       <c r="G41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>28</v>
       </c>
@@ -1740,8 +2037,14 @@
       <c r="G42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>28</v>
       </c>
@@ -1760,8 +2063,14 @@
       <c r="G43" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>174</v>
+      </c>
+      <c r="J43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>28</v>
       </c>
@@ -1780,8 +2089,14 @@
       <c r="G44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>174</v>
+      </c>
+      <c r="J44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>28</v>
       </c>
@@ -1794,8 +2109,14 @@
       <c r="E45" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>174</v>
+      </c>
+      <c r="J45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>28</v>
       </c>
@@ -1808,8 +2129,14 @@
       <c r="E46" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>174</v>
+      </c>
+      <c r="J46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>28</v>
       </c>
@@ -1822,8 +2149,14 @@
       <c r="E47">
         <v>80</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>174</v>
+      </c>
+      <c r="J47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>28</v>
       </c>
@@ -1836,8 +2169,14 @@
       <c r="E48">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>174</v>
+      </c>
+      <c r="J48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -1850,8 +2189,14 @@
       <c r="E49">
         <v>84</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>174</v>
+      </c>
+      <c r="J49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>28</v>
       </c>
@@ -1864,8 +2209,14 @@
       <c r="E50">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>174</v>
+      </c>
+      <c r="J50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>28</v>
       </c>
@@ -1878,8 +2229,14 @@
       <c r="E51">
         <v>91</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>174</v>
+      </c>
+      <c r="J51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>28</v>
       </c>
@@ -1892,8 +2249,14 @@
       <c r="E52">
         <v>96</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>174</v>
+      </c>
+      <c r="J52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>28</v>
       </c>
@@ -1906,8 +2269,14 @@
       <c r="E53">
         <v>97</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>179</v>
+      </c>
+      <c r="J53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>28</v>
       </c>
@@ -1920,8 +2289,14 @@
       <c r="E54">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>174</v>
+      </c>
+      <c r="J54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>28</v>
       </c>
@@ -1934,8 +2309,14 @@
       <c r="E55">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>174</v>
+      </c>
+      <c r="J55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>28</v>
       </c>
@@ -1948,8 +2329,14 @@
       <c r="E56">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>174</v>
+      </c>
+      <c r="J56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>28</v>
       </c>
@@ -1962,8 +2349,14 @@
       <c r="E57">
         <v>105</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>174</v>
+      </c>
+      <c r="J57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>28</v>
       </c>
@@ -1976,8 +2369,14 @@
       <c r="E58">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>177</v>
+      </c>
+      <c r="J58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>28</v>
       </c>
@@ -1990,8 +2389,14 @@
       <c r="E59">
         <v>110</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>176</v>
+      </c>
+      <c r="J59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>70</v>
       </c>
@@ -2004,8 +2409,14 @@
       <c r="E60">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>70</v>
       </c>
@@ -2018,8 +2429,14 @@
       <c r="E61">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>70</v>
       </c>
@@ -2032,8 +2449,14 @@
       <c r="E62">
         <v>119</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>70</v>
       </c>
@@ -2046,8 +2469,14 @@
       <c r="E63">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>70</v>
       </c>
@@ -2060,8 +2489,14 @@
       <c r="E64">
         <v>124</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>70</v>
       </c>
@@ -2074,8 +2509,14 @@
       <c r="E65">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>70</v>
       </c>
@@ -2088,8 +2529,14 @@
       <c r="E66">
         <v>128</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -2102,8 +2549,14 @@
       <c r="E67">
         <v>129</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>178</v>
+      </c>
+      <c r="J67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>70</v>
       </c>
@@ -2116,8 +2569,14 @@
       <c r="E68">
         <v>131</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>178</v>
+      </c>
+      <c r="J68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>70</v>
       </c>
@@ -2130,8 +2589,14 @@
       <c r="E69">
         <v>132</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>178</v>
+      </c>
+      <c r="J69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>70</v>
       </c>
@@ -2144,8 +2609,14 @@
       <c r="E70">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>178</v>
+      </c>
+      <c r="J70" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>70</v>
       </c>
@@ -2158,8 +2629,14 @@
       <c r="E71">
         <v>140</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>178</v>
+      </c>
+      <c r="J71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>70</v>
       </c>
@@ -2172,8 +2649,14 @@
       <c r="E72">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>178</v>
+      </c>
+      <c r="J72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>70</v>
       </c>
@@ -2186,8 +2669,14 @@
       <c r="E73">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>70</v>
       </c>
@@ -2200,8 +2689,14 @@
       <c r="E74">
         <v>144</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>70</v>
       </c>
@@ -2214,8 +2709,14 @@
       <c r="E75">
         <v>146</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>70</v>
       </c>
@@ -2228,8 +2729,14 @@
       <c r="E76">
         <v>147</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>70</v>
       </c>
@@ -2242,8 +2749,14 @@
       <c r="E77" s="2">
         <v>148</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>70</v>
       </c>
@@ -2256,8 +2769,14 @@
       <c r="E78">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>70</v>
       </c>
@@ -2270,8 +2789,14 @@
       <c r="E79">
         <v>149</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>70</v>
       </c>
@@ -2284,8 +2809,14 @@
       <c r="E80">
         <v>152</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>70</v>
       </c>
@@ -2298,8 +2829,14 @@
       <c r="E81">
         <v>152</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>70</v>
       </c>
@@ -2312,8 +2849,14 @@
       <c r="E82">
         <v>156</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>70</v>
       </c>
@@ -2326,8 +2869,14 @@
       <c r="E83">
         <v>159</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>70</v>
       </c>
@@ -2340,8 +2889,14 @@
       <c r="E84">
         <v>162</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>70</v>
       </c>
@@ -2354,8 +2909,14 @@
       <c r="E85">
         <v>162</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>70</v>
       </c>
@@ -2368,8 +2929,14 @@
       <c r="E86">
         <v>164</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>70</v>
       </c>
@@ -2382,8 +2949,14 @@
       <c r="E87">
         <v>164</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>70</v>
       </c>
@@ -2396,8 +2969,14 @@
       <c r="E88">
         <v>164</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>70</v>
       </c>
@@ -2410,8 +2989,14 @@
       <c r="E89">
         <v>165</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>70</v>
       </c>
@@ -2424,8 +3009,14 @@
       <c r="E90">
         <v>167</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>70</v>
       </c>
@@ -2438,8 +3029,14 @@
       <c r="E91">
         <v>168</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>70</v>
       </c>
@@ -2452,8 +3049,14 @@
       <c r="E92">
         <v>171</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>11</v>
+      </c>
+      <c r="J92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>70</v>
       </c>
@@ -2466,8 +3069,14 @@
       <c r="E93">
         <v>172</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>70</v>
       </c>
@@ -2480,8 +3089,14 @@
       <c r="E94">
         <v>173</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>70</v>
       </c>
@@ -2494,8 +3109,14 @@
       <c r="E95">
         <v>173</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>11</v>
+      </c>
+      <c r="J95" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>70</v>
       </c>
@@ -2508,8 +3129,14 @@
       <c r="E96">
         <v>176</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>70</v>
       </c>
@@ -2522,8 +3149,14 @@
       <c r="E97">
         <v>177</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>70</v>
       </c>
@@ -2536,8 +3169,14 @@
       <c r="E98">
         <v>179</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>70</v>
       </c>
@@ -2550,8 +3189,14 @@
       <c r="E99">
         <v>179</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>11</v>
+      </c>
+      <c r="J99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>70</v>
       </c>
@@ -2564,8 +3209,14 @@
       <c r="E100">
         <v>183</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>111</v>
       </c>
@@ -2578,8 +3229,14 @@
       <c r="E101">
         <v>193</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>188</v>
+      </c>
+      <c r="J101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>111</v>
       </c>
@@ -2592,8 +3249,14 @@
       <c r="E102">
         <v>194</v>
       </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>176</v>
+      </c>
+      <c r="J102" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>111</v>
       </c>
@@ -2606,8 +3269,14 @@
       <c r="E103">
         <v>194</v>
       </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>176</v>
+      </c>
+      <c r="J103" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>111</v>
       </c>
@@ -2620,8 +3289,14 @@
       <c r="E104">
         <v>195</v>
       </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>176</v>
+      </c>
+      <c r="J104" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>111</v>
       </c>
@@ -2634,8 +3309,14 @@
       <c r="E105">
         <v>197</v>
       </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>176</v>
+      </c>
+      <c r="J105" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>111</v>
       </c>
@@ -2648,8 +3329,14 @@
       <c r="E106">
         <v>198</v>
       </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>180</v>
+      </c>
+      <c r="J106" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>111</v>
       </c>
@@ -2662,8 +3349,14 @@
       <c r="E107">
         <v>202</v>
       </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>180</v>
+      </c>
+      <c r="J107" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>111</v>
       </c>
@@ -2676,8 +3369,14 @@
       <c r="E108">
         <v>204</v>
       </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>176</v>
+      </c>
+      <c r="J108" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>111</v>
       </c>
@@ -2690,8 +3389,14 @@
       <c r="E109">
         <v>204</v>
       </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>176</v>
+      </c>
+      <c r="J109" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>111</v>
       </c>
@@ -2704,8 +3409,14 @@
       <c r="E110">
         <v>205</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>176</v>
+      </c>
+      <c r="J110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>111</v>
       </c>
@@ -2718,8 +3429,14 @@
       <c r="E111">
         <v>207</v>
       </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>176</v>
+      </c>
+      <c r="J111" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>111</v>
       </c>
@@ -2732,8 +3449,14 @@
       <c r="E112">
         <v>211</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>181</v>
+      </c>
+      <c r="J112" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>111</v>
       </c>
@@ -2746,8 +3469,14 @@
       <c r="E113">
         <v>215</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>180</v>
+      </c>
+      <c r="J113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>111</v>
       </c>
@@ -2760,8 +3489,14 @@
       <c r="E114">
         <v>215</v>
       </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>180</v>
+      </c>
+      <c r="J114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>111</v>
       </c>
@@ -2774,8 +3509,14 @@
       <c r="E115">
         <v>219</v>
       </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>180</v>
+      </c>
+      <c r="J115" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>111</v>
       </c>
@@ -2788,8 +3529,14 @@
       <c r="E116">
         <v>223</v>
       </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>180</v>
+      </c>
+      <c r="J116" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>111</v>
       </c>
@@ -2802,8 +3549,14 @@
       <c r="E117">
         <v>227</v>
       </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>180</v>
+      </c>
+      <c r="J117" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>111</v>
       </c>
@@ -2816,8 +3569,14 @@
       <c r="E118">
         <v>228</v>
       </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>180</v>
+      </c>
+      <c r="J118" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>111</v>
       </c>
@@ -2830,8 +3589,14 @@
       <c r="E119">
         <v>228</v>
       </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>180</v>
+      </c>
+      <c r="J119" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>111</v>
       </c>
@@ -2844,8 +3609,14 @@
       <c r="E120">
         <v>231</v>
       </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I120" t="s">
+        <v>180</v>
+      </c>
+      <c r="J120" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>111</v>
       </c>
@@ -2858,8 +3629,14 @@
       <c r="E121">
         <v>234</v>
       </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>180</v>
+      </c>
+      <c r="J121" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>111</v>
       </c>
@@ -2872,8 +3649,14 @@
       <c r="E122">
         <v>236</v>
       </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>180</v>
+      </c>
+      <c r="J122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>111</v>
       </c>
@@ -2886,8 +3669,14 @@
       <c r="E123">
         <v>237</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>176</v>
+      </c>
+      <c r="J123" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>111</v>
       </c>
@@ -2900,8 +3689,14 @@
       <c r="E124">
         <v>238</v>
       </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I124" t="s">
+        <v>176</v>
+      </c>
+      <c r="J124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>111</v>
       </c>
@@ -2914,8 +3709,14 @@
       <c r="E125">
         <v>238</v>
       </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I125" t="s">
+        <v>176</v>
+      </c>
+      <c r="J125" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>111</v>
       </c>
@@ -2928,8 +3729,14 @@
       <c r="E126">
         <v>240</v>
       </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I126" t="s">
+        <v>180</v>
+      </c>
+      <c r="J126" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>111</v>
       </c>
@@ -2942,8 +3749,14 @@
       <c r="E127">
         <v>243</v>
       </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I127" t="s">
+        <v>176</v>
+      </c>
+      <c r="J127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>111</v>
       </c>
@@ -2956,8 +3769,14 @@
       <c r="E128">
         <v>243</v>
       </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I128" t="s">
+        <v>174</v>
+      </c>
+      <c r="J128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>111</v>
       </c>
@@ -2970,8 +3789,14 @@
       <c r="E129">
         <v>245</v>
       </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I129" t="s">
+        <v>174</v>
+      </c>
+      <c r="J129" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>111</v>
       </c>
@@ -2984,8 +3809,14 @@
       <c r="E130">
         <v>245</v>
       </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I130" t="s">
+        <v>174</v>
+      </c>
+      <c r="J130" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>111</v>
       </c>
@@ -2998,8 +3829,14 @@
       <c r="E131">
         <v>247</v>
       </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I131" t="s">
+        <v>174</v>
+      </c>
+      <c r="J131" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>111</v>
       </c>
@@ -3012,8 +3849,14 @@
       <c r="E132">
         <v>248</v>
       </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I132" t="s">
+        <v>174</v>
+      </c>
+      <c r="J132" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>111</v>
       </c>
@@ -3026,8 +3869,14 @@
       <c r="E133">
         <v>249</v>
       </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I133" t="s">
+        <v>174</v>
+      </c>
+      <c r="J133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>111</v>
       </c>
@@ -3040,8 +3889,14 @@
       <c r="E134">
         <v>250</v>
       </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I134" t="s">
+        <v>182</v>
+      </c>
+      <c r="J134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>111</v>
       </c>
@@ -3054,8 +3909,14 @@
       <c r="E135">
         <v>251</v>
       </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I135" t="s">
+        <v>174</v>
+      </c>
+      <c r="J135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>111</v>
       </c>
@@ -3068,8 +3929,14 @@
       <c r="E136">
         <v>254</v>
       </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I136" t="s">
+        <v>176</v>
+      </c>
+      <c r="J136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>111</v>
       </c>
@@ -3083,7 +3950,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>111</v>
       </c>
@@ -3097,7 +3964,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>111</v>
       </c>
@@ -3111,7 +3978,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>111</v>
       </c>
@@ -3125,7 +3992,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>149</v>
       </c>
@@ -3139,7 +4006,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>149</v>
       </c>
@@ -3153,7 +4020,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>149</v>
       </c>
@@ -3167,7 +4034,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>149</v>
       </c>
